--- a/VytrackTestUsers.xlsx
+++ b/VytrackTestUsers.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="1482">
   <si>
     <t>username</t>
   </si>
@@ -4479,6 +4479,9 @@
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>Passed!</t>
   </si>
 </sst>
 </file>
@@ -9124,7 +9127,7 @@
         <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9144,7 +9147,7 @@
         <v>803</v>
       </c>
       <c r="F3" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
